--- a/Data Files/Data Excel files/customer_data.xlsx
+++ b/Data Files/Data Excel files/customer_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Applicant details" sheetId="1" r:id="rId1"/>
@@ -170,16 +170,16 @@
     <t>testqaB</t>
   </si>
   <si>
-    <t>qa</t>
-  </si>
-  <si>
-    <t>Cim Naviqa</t>
-  </si>
-  <si>
-    <t>qacimindtester</t>
-  </si>
-  <si>
-    <t>q09897527433035</t>
+    <t>ashty</t>
+  </si>
+  <si>
+    <t>taker</t>
+  </si>
+  <si>
+    <t>t6054144217888</t>
+  </si>
+  <si>
+    <t>morning orbit</t>
   </si>
 </sst>
 </file>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,13 +665,13 @@
         <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>33046</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" s="1">
         <v>456745</v>
@@ -699,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -715,7 +715,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
